--- a/data/trans_dic/P04D$notiene-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P04D$notiene-Estudios-trans_dic.xlsx
@@ -646,7 +646,7 @@
         <v>0.2187026291828888</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.1427827305639088</v>
+        <v>0.1427827305639089</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.05664647808368123</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03842452409948728</v>
+        <v>0.03905557180582184</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.190076108320203</v>
+        <v>0.1905955603593517</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1152632380670969</v>
+        <v>0.1125658046181828</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.04517612058911723</v>
+        <v>0.04543123248879673</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1828391485800929</v>
+        <v>0.1839238671787265</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1103345978087874</v>
+        <v>0.1108615727688884</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.04599424641355319</v>
+        <v>0.04574945923598388</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1946100510065874</v>
+        <v>0.1949873161444843</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1180390311031528</v>
+        <v>0.1169086961436501</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.06834349646731297</v>
+        <v>0.06575902967438781</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2495783168649986</v>
+        <v>0.2487043196558547</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1734368693842005</v>
+        <v>0.1730184424495633</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.07041639328169522</v>
+        <v>0.07082833309133112</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2375424642874197</v>
+        <v>0.2361237135210704</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1489145632478141</v>
+        <v>0.1489236079001961</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.06478313057882591</v>
+        <v>0.0643395679578684</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2325381561341988</v>
+        <v>0.2332820191474159</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1519186283880558</v>
+        <v>0.1502882834712128</v>
       </c>
     </row>
     <row r="7">
@@ -755,7 +755,7 @@
         <v>0.1535814881501378</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1227465891081187</v>
+        <v>0.1227465891081188</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0.04186074827911716</v>
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03228826912289973</v>
+        <v>0.03153564986230434</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1354608036628328</v>
+        <v>0.1376938806836041</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1072625941442857</v>
+        <v>0.107080716579741</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.03276452940766632</v>
+        <v>0.03272883358363454</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1094911697592145</v>
+        <v>0.1103370029262557</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1109370015854118</v>
+        <v>0.1101690255418665</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.03465283852331087</v>
+        <v>0.03463155626801497</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1277846245283978</v>
+        <v>0.1288821149716064</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.112711493002076</v>
+        <v>0.1132743067650501</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05153767250068823</v>
+        <v>0.05048837517482985</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1697021146801364</v>
+        <v>0.1705960125619225</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1391302608322415</v>
+        <v>0.1396808392992177</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.05296022011195423</v>
+        <v>0.05404864117471059</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1389423427022724</v>
+        <v>0.1401500910403374</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1380886068465431</v>
+        <v>0.1372127399991246</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.04893574508352054</v>
+        <v>0.04816518224246759</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1498045619692181</v>
+        <v>0.1505548310501323</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1335557612910915</v>
+        <v>0.1346668224415359</v>
       </c>
     </row>
     <row r="10">
@@ -864,7 +864,7 @@
         <v>0.08895793291088713</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.106963648082113</v>
+        <v>0.1069636480821129</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.02264799969770561</v>
@@ -882,7 +882,7 @@
         <v>0.09712174054601752</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.1094312393721387</v>
+        <v>0.1094312393721388</v>
       </c>
     </row>
     <row r="11">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01236500690128767</v>
+        <v>0.01247925266640358</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06671515783455076</v>
+        <v>0.06671310114780904</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.08327501312400132</v>
+        <v>0.0822298616242763</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.0109135473168584</v>
+        <v>0.01104790705758732</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.0810285074852857</v>
+        <v>0.08035373178893597</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.09052847113293427</v>
+        <v>0.09045646493230437</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.01480347913551353</v>
+        <v>0.01401327983675048</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.07806401320143842</v>
+        <v>0.07908117801511692</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.09328613243019271</v>
+        <v>0.09418879490202417</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04552385912917946</v>
+        <v>0.04470745255991887</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1177265633532392</v>
+        <v>0.113570263411293</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1375839930533997</v>
+        <v>0.1375319970417366</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.04391629199894502</v>
+        <v>0.04143842995251904</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1333098300190593</v>
+        <v>0.1339076883857559</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1366420140393758</v>
+        <v>0.1362541470308815</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.03522861309922896</v>
+        <v>0.03568176625660319</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1174178615212258</v>
+        <v>0.1152001210576272</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1280209300419667</v>
+        <v>0.12905900754798</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03500902505037341</v>
+        <v>0.0357061298846344</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1448305591696853</v>
+        <v>0.1439463356027616</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1109540601131127</v>
+        <v>0.1112002570789983</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.03794344133423765</v>
+        <v>0.03816554132111939</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.132335781420156</v>
+        <v>0.1334345827879298</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1133260900491872</v>
+        <v>0.1134392991340492</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.03815496648555209</v>
+        <v>0.03830807951417633</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1429921969825683</v>
+        <v>0.1428534519023655</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1155090663260777</v>
+        <v>0.1154436005951078</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04870284830325555</v>
+        <v>0.04941173121913296</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1714016749810246</v>
+        <v>0.1709195116828541</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1364527158580301</v>
+        <v>0.135677874599594</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.05197408805998922</v>
+        <v>0.05250229565889118</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1564501186760124</v>
+        <v>0.1572154418051085</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1329996217047548</v>
+        <v>0.1334824937578032</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.04864285587710164</v>
+        <v>0.04835585040837899</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1612388957008896</v>
+        <v>0.1595551889271347</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1305883630272568</v>
+        <v>0.1313981624860911</v>
       </c>
     </row>
     <row r="16">
@@ -1289,31 +1289,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>37375</v>
+        <v>37989</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>143383</v>
+        <v>143775</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>66449</v>
+        <v>64894</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>60436</v>
+        <v>60778</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>181863</v>
+        <v>182942</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>90623</v>
+        <v>91056</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>106269</v>
+        <v>105704</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>340374</v>
+        <v>341034</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>165001</v>
+        <v>163421</v>
       </c>
     </row>
     <row r="7">
@@ -1324,31 +1324,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>66477</v>
+        <v>63964</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>188269</v>
+        <v>187609</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>99987</v>
+        <v>99745</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>94203</v>
+        <v>94754</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>236274</v>
+        <v>234863</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>122311</v>
+        <v>122318</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>149681</v>
+        <v>148656</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>406711</v>
+        <v>408012</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>212359</v>
+        <v>210080</v>
       </c>
     </row>
     <row r="8">
@@ -1433,31 +1433,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>63247</v>
+        <v>61772</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>281269</v>
+        <v>285906</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>238444</v>
+        <v>238040</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>57456</v>
+        <v>57393</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>217701</v>
+        <v>219383</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>240276</v>
+        <v>238613</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>128645</v>
+        <v>128566</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>519404</v>
+        <v>523865</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>494676</v>
+        <v>497146</v>
       </c>
     </row>
     <row r="11">
@@ -1468,31 +1468,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>100952</v>
+        <v>98897</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>352367</v>
+        <v>354223</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>309285</v>
+        <v>310509</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>92871</v>
+        <v>94779</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>276259</v>
+        <v>278660</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>299083</v>
+        <v>297186</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>181669</v>
+        <v>178809</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>608908</v>
+        <v>611958</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>586159</v>
+        <v>591035</v>
       </c>
     </row>
     <row r="12">
@@ -1577,31 +1577,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>5950</v>
+        <v>6005</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>36486</v>
+        <v>36484</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>59257</v>
+        <v>58514</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>5005</v>
+        <v>5067</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>44496</v>
+        <v>44125</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>66246</v>
+        <v>66193</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>13913</v>
+        <v>13170</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>85560</v>
+        <v>86675</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>134645</v>
+        <v>135948</v>
       </c>
     </row>
     <row r="15">
@@ -1612,31 +1612,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>21905</v>
+        <v>21512</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>64383</v>
+        <v>62110</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>97903</v>
+        <v>97866</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>20141</v>
+        <v>19005</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>73206</v>
+        <v>73534</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>99991</v>
+        <v>99707</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>33108</v>
+        <v>33534</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>128693</v>
+        <v>126262</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>184780</v>
+        <v>186278</v>
       </c>
     </row>
     <row r="16">
@@ -1721,31 +1721,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>119475</v>
+        <v>121854</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>489182</v>
+        <v>486196</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>389569</v>
+        <v>390433</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>134700</v>
+        <v>135489</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>467423</v>
+        <v>471304</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>421459</v>
+        <v>421880</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>265662</v>
+        <v>266728</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>988036</v>
+        <v>987077</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>835139</v>
+        <v>834666</v>
       </c>
     </row>
     <row r="19">
@@ -1756,31 +1756,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>166208</v>
+        <v>168627</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>578929</v>
+        <v>577301</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>479096</v>
+        <v>476376</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>184509</v>
+        <v>186384</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>552597</v>
+        <v>555301</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>494625</v>
+        <v>496421</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>338686</v>
+        <v>336688</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>1114115</v>
+        <v>1102481</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>944164</v>
+        <v>950019</v>
       </c>
     </row>
     <row r="20">
